--- a/Code/Results/Cases/Case_2_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.593552034840741</v>
+        <v>1.262707239097949</v>
       </c>
       <c r="C2">
-        <v>0.9734766623657549</v>
+        <v>0.3043599639595413</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7566243247632656</v>
+        <v>0.6418854245945766</v>
       </c>
       <c r="F2">
-        <v>2.21779097345734</v>
+        <v>2.291294084569103</v>
       </c>
       <c r="G2">
-        <v>0.5048628620955498</v>
+        <v>0.5133542502961888</v>
       </c>
       <c r="H2">
-        <v>0.322372466975736</v>
+        <v>0.6295261512474042</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03253720612694266</v>
+        <v>0.04377196850951037</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.112501159349563</v>
+        <v>1.120204199138129</v>
       </c>
       <c r="C3">
-        <v>0.8476432817165858</v>
+        <v>0.2654254544516164</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6648383071446773</v>
+        <v>0.6189219973254865</v>
       </c>
       <c r="F3">
-        <v>1.98261604003946</v>
+        <v>2.256770304688501</v>
       </c>
       <c r="G3">
-        <v>0.4573980772894686</v>
+        <v>0.51420234392792</v>
       </c>
       <c r="H3">
-        <v>0.3125209196329308</v>
+        <v>0.6375345785623807</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03018040607191708</v>
+        <v>0.04415469535792838</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.819344261294475</v>
+        <v>1.032743207378019</v>
       </c>
       <c r="C4">
-        <v>0.7708134662548503</v>
+        <v>0.2414433423650166</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6091076598367522</v>
+        <v>0.6050139318468979</v>
       </c>
       <c r="F4">
-        <v>1.843795894669142</v>
+        <v>2.237333643526355</v>
       </c>
       <c r="G4">
-        <v>0.4315620273553975</v>
+        <v>0.5155636331247706</v>
       </c>
       <c r="H4">
-        <v>0.3082797708900955</v>
+        <v>0.643093673735649</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02895325596709242</v>
+        <v>0.04445087243192702</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.700329567379299</v>
+        <v>0.9971116985606727</v>
       </c>
       <c r="C5">
-        <v>0.7395874014251831</v>
+        <v>0.2316514638650915</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5865328473415872</v>
+        <v>0.5993945768389182</v>
       </c>
       <c r="F5">
-        <v>1.788489926981129</v>
+        <v>2.229853652754002</v>
       </c>
       <c r="G5">
-        <v>0.4217891176170525</v>
+        <v>0.5163277833372319</v>
       </c>
       <c r="H5">
-        <v>0.3069710459113111</v>
+        <v>0.6455196874914435</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02850350915277033</v>
+        <v>0.04458682901672617</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.68059144656803</v>
+        <v>0.9911957033572207</v>
       </c>
       <c r="C6">
-        <v>0.7344066155979192</v>
+        <v>0.2300243895604126</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5827919269964141</v>
+        <v>0.5984644078881303</v>
       </c>
       <c r="F6">
-        <v>1.779378945306931</v>
+        <v>2.228638152584836</v>
       </c>
       <c r="G6">
-        <v>0.420209848484447</v>
+        <v>0.5164672608885752</v>
       </c>
       <c r="H6">
-        <v>0.3067781037265291</v>
+        <v>0.6459322047868596</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02843173088613327</v>
+        <v>0.04461032271280274</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.817737503473666</v>
+        <v>1.032262629146089</v>
       </c>
       <c r="C7">
-        <v>0.7703920384577145</v>
+        <v>0.2413113622352228</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6088026850710904</v>
+        <v>0.6049379515470719</v>
       </c>
       <c r="F7">
-        <v>1.843045074348652</v>
+        <v>2.237230984718266</v>
       </c>
       <c r="G7">
-        <v>0.431427263877481</v>
+        <v>0.5155730934026934</v>
       </c>
       <c r="H7">
-        <v>0.3082604663470789</v>
+        <v>0.6431257424209917</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02894699303246284</v>
+        <v>0.0444526443563511</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.4271597136688</v>
+        <v>1.213564801243081</v>
       </c>
       <c r="C8">
-        <v>0.9299831345728933</v>
+        <v>0.2909512452490617</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.724832869552074</v>
+        <v>0.6339279370114781</v>
       </c>
       <c r="F8">
-        <v>2.135457970850325</v>
+        <v>2.279023409295348</v>
       </c>
       <c r="G8">
-        <v>0.4877627031790297</v>
+        <v>0.5134710397386044</v>
       </c>
       <c r="H8">
-        <v>0.318578496948831</v>
+        <v>0.632153768914435</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03167580446920226</v>
+        <v>0.04389116071777366</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.645148120866281</v>
+        <v>1.569390280894027</v>
       </c>
       <c r="C9">
-        <v>1.247690202321053</v>
+        <v>0.3876880548206145</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.9584299471853939</v>
+        <v>0.6922956342516784</v>
       </c>
       <c r="F9">
-        <v>2.760046197057761</v>
+        <v>2.375060163019526</v>
       </c>
       <c r="G9">
-        <v>0.6282672848060287</v>
+        <v>0.5161069903113003</v>
       </c>
       <c r="H9">
-        <v>0.3548944493996089</v>
+        <v>0.61576573922477</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03902059463515073</v>
+        <v>0.04328109603355301</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.562414871063027</v>
+        <v>1.831028095596139</v>
       </c>
       <c r="C10">
-        <v>1.486087656352481</v>
+        <v>0.4583952198727275</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.135472611172744</v>
+        <v>0.7361074719727014</v>
       </c>
       <c r="F10">
-        <v>3.260910627090311</v>
+        <v>2.454364863858245</v>
       </c>
       <c r="G10">
-        <v>0.7556934380557863</v>
+        <v>0.5222871558708135</v>
       </c>
       <c r="H10">
-        <v>0.3940840485432915</v>
+        <v>0.6069000738564796</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04602081525117541</v>
+        <v>0.04313995097061962</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.98674026838188</v>
+        <v>1.950110164522357</v>
       </c>
       <c r="C11">
-        <v>1.596160819723707</v>
+        <v>0.4904841077038213</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.217636869527581</v>
+        <v>0.7562415852600566</v>
       </c>
       <c r="F11">
-        <v>3.500663061567366</v>
+        <v>2.492377713296236</v>
       </c>
       <c r="G11">
-        <v>0.8204323433439953</v>
+        <v>0.526046851192703</v>
       </c>
       <c r="H11">
-        <v>0.4153245479893286</v>
+        <v>0.6035666958547807</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04965446297786968</v>
+        <v>0.04314409573635203</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.148642844886638</v>
+        <v>1.99521260407613</v>
       </c>
       <c r="C12">
-        <v>1.638127958541247</v>
+        <v>0.5026243824529502</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.249027115458503</v>
+        <v>0.7638951721974223</v>
       </c>
       <c r="F12">
-        <v>3.593431286618483</v>
+        <v>2.507053417158573</v>
       </c>
       <c r="G12">
-        <v>0.8460673520829545</v>
+        <v>0.5276090767728761</v>
       </c>
       <c r="H12">
-        <v>0.4239258107069332</v>
+        <v>0.6024059053908672</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05110482112993253</v>
+        <v>0.04315563113028986</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.1137164272821</v>
+        <v>1.985498605381451</v>
       </c>
       <c r="C13">
-        <v>1.629076028558245</v>
+        <v>0.5000102523916894</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.242253631061445</v>
+        <v>0.7622455362973</v>
       </c>
       <c r="F13">
-        <v>3.573359327198034</v>
+        <v>2.503880200330514</v>
       </c>
       <c r="G13">
-        <v>0.8404940579063123</v>
+        <v>0.5272664290009601</v>
       </c>
       <c r="H13">
-        <v>0.422047394046956</v>
+        <v>0.6026513746796098</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05078898243397489</v>
+        <v>0.04315270135444038</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.000034375458711</v>
+        <v>1.953820597255117</v>
       </c>
       <c r="C14">
-        <v>1.599607455826231</v>
+        <v>0.4914831184315176</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.220213559849867</v>
+        <v>0.7568706649914816</v>
       </c>
       <c r="F14">
-        <v>3.508253836258092</v>
+        <v>2.493579444602773</v>
       </c>
       <c r="G14">
-        <v>0.8225180033171142</v>
+        <v>0.5261725881574932</v>
       </c>
       <c r="H14">
-        <v>0.4160205802790244</v>
+        <v>0.6034691579226745</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04977223339870562</v>
+        <v>0.04314484424232035</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.930566223016456</v>
+        <v>1.934418022410568</v>
       </c>
       <c r="C15">
-        <v>1.581595830686013</v>
+        <v>0.4862585544527747</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.20675073839881</v>
+        <v>0.7535822060880832</v>
       </c>
       <c r="F15">
-        <v>3.468641124023918</v>
+        <v>2.487306613433987</v>
       </c>
       <c r="G15">
-        <v>0.811657642361908</v>
+        <v>0.5255206810236928</v>
       </c>
       <c r="H15">
-        <v>0.4124037894809334</v>
+        <v>0.6039833165542206</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0491594442155332</v>
+        <v>0.04314133345982896</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.534843139086149</v>
+        <v>1.8232470233595</v>
       </c>
       <c r="C16">
-        <v>1.478931035699475</v>
+        <v>0.4562965908646675</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.130139222374879</v>
+        <v>0.7347957557001337</v>
       </c>
       <c r="F16">
-        <v>3.245503867477197</v>
+        <v>2.451919825331231</v>
       </c>
       <c r="G16">
-        <v>0.7516109191212905</v>
+        <v>0.5220607164939537</v>
       </c>
       <c r="H16">
-        <v>0.3927701529598124</v>
+        <v>0.6071320717572632</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04579319310703767</v>
+        <v>0.0431410672073298</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.294025004530113</v>
+        <v>1.755062842977509</v>
       </c>
       <c r="C17">
-        <v>1.416400033930074</v>
+        <v>0.4378962872710304</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.083585674332454</v>
+        <v>0.7233230350062314</v>
       </c>
       <c r="F17">
-        <v>3.111845192788365</v>
+        <v>2.430709037585387</v>
       </c>
       <c r="G17">
-        <v>0.716606724484393</v>
+        <v>0.5201825483140965</v>
       </c>
       <c r="H17">
-        <v>0.3816447915976795</v>
+        <v>0.6092435531190574</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04384971232939705</v>
+        <v>0.04315850769099683</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.15616322276162</v>
+        <v>1.715850925208372</v>
       </c>
       <c r="C18">
-        <v>1.380583372188255</v>
+        <v>0.427305758519708</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.056959557542015</v>
+        <v>0.7167434248640632</v>
       </c>
       <c r="F18">
-        <v>3.036071064037344</v>
+        <v>2.41869129423182</v>
       </c>
       <c r="G18">
-        <v>0.6971008802002245</v>
+        <v>0.5191914061112755</v>
       </c>
       <c r="H18">
-        <v>0.3755625197584607</v>
+        <v>0.610523823729082</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04277349774625705</v>
+        <v>0.04317496441569091</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.109591473288106</v>
+        <v>1.702575450945687</v>
       </c>
       <c r="C19">
-        <v>1.368480694185791</v>
+        <v>0.4237187620797158</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.047969013027924</v>
+        <v>0.7145189814543613</v>
       </c>
       <c r="F19">
-        <v>3.010597077916174</v>
+        <v>2.414653498039286</v>
       </c>
       <c r="G19">
-        <v>0.6906001903099792</v>
+        <v>0.5188710653902433</v>
       </c>
       <c r="H19">
-        <v>0.373555661060152</v>
+        <v>0.6109685763073145</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04241598214409947</v>
+        <v>0.04318163579388568</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.31959178479616</v>
+        <v>1.76232056490727</v>
       </c>
       <c r="C20">
-        <v>1.423040742109265</v>
+        <v>0.4398557731594224</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.088525538367534</v>
+        <v>0.724542339695617</v>
       </c>
       <c r="F20">
-        <v>3.125957427408679</v>
+        <v>2.43294809284825</v>
       </c>
       <c r="G20">
-        <v>0.7202670248551613</v>
+        <v>0.5203732423661762</v>
       </c>
       <c r="H20">
-        <v>0.3827958649178242</v>
+        <v>0.6090119657098683</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0440522245883308</v>
+        <v>0.0431559851263934</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.033390679176875</v>
+        <v>1.963124963097926</v>
       </c>
       <c r="C21">
-        <v>1.608254918274099</v>
+        <v>0.4939880464108342</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.226679393360499</v>
+        <v>0.7584486021672205</v>
       </c>
       <c r="F21">
-        <v>3.527320876458646</v>
+        <v>2.496597377744251</v>
       </c>
       <c r="G21">
-        <v>0.8277663556178823</v>
+        <v>0.5264900994547901</v>
       </c>
       <c r="H21">
-        <v>0.4177750792008652</v>
+        <v>0.6032261938040477</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05006877406705712</v>
+        <v>0.04314688050128979</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.507124346479316</v>
+        <v>2.094412561777688</v>
       </c>
       <c r="C22">
-        <v>1.730992131063545</v>
+        <v>0.5293019173515177</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.318606223992205</v>
+        <v>0.780778677945392</v>
       </c>
       <c r="F22">
-        <v>3.801322208920936</v>
+        <v>2.539835321723388</v>
       </c>
       <c r="G22">
-        <v>0.9046327556930436</v>
+        <v>0.5312961661383326</v>
       </c>
       <c r="H22">
-        <v>0.4439260832301244</v>
+        <v>0.6000368144758994</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0544400089557584</v>
+        <v>0.04319908286653984</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.253547784287662</v>
+        <v>2.02433735825565</v>
       </c>
       <c r="C23">
-        <v>1.665311677925899</v>
+        <v>0.5104602019881099</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.26937790860471</v>
+        <v>0.7688451322318741</v>
       </c>
       <c r="F23">
-        <v>3.653915280602462</v>
+        <v>2.51660755351989</v>
       </c>
       <c r="G23">
-        <v>0.86294948771598</v>
+        <v>0.5286564031544145</v>
       </c>
       <c r="H23">
-        <v>0.4296431498841287</v>
+        <v>0.6016845909596782</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0520632272482473</v>
+        <v>0.04316585506472492</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.308031227816514</v>
+        <v>1.75903938595286</v>
       </c>
       <c r="C24">
-        <v>1.420038066691518</v>
+        <v>0.4389699268036793</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.08629179870448</v>
+        <v>0.7239910415514146</v>
       </c>
       <c r="F24">
-        <v>3.119573979199401</v>
+        <v>2.431935266000465</v>
       </c>
       <c r="G24">
-        <v>0.7186102872467899</v>
+        <v>0.5202867536387004</v>
       </c>
       <c r="H24">
-        <v>0.3822744920700671</v>
+        <v>0.6091164597605854</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04396054144274686</v>
+        <v>0.04315710556034347</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.312382393137568</v>
+        <v>1.473095370402177</v>
       </c>
       <c r="C25">
-        <v>1.161033141849316</v>
+        <v>0.3615827341006366</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8944209169836768</v>
+        <v>0.6763427491975307</v>
       </c>
       <c r="F25">
-        <v>2.584560921851278</v>
+        <v>2.347555472990592</v>
       </c>
       <c r="G25">
-        <v>0.5864738917259871</v>
+        <v>0.5146576417684798</v>
       </c>
       <c r="H25">
-        <v>0.3430875228761323</v>
+        <v>0.6196451543245018</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03678283249438863</v>
+        <v>0.04339277174229039</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.262707239097949</v>
+        <v>3.593552034840798</v>
       </c>
       <c r="C2">
-        <v>0.3043599639595413</v>
+        <v>0.9734766623659823</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6418854245945766</v>
+        <v>0.7566243247632372</v>
       </c>
       <c r="F2">
-        <v>2.291294084569103</v>
+        <v>2.21779097345734</v>
       </c>
       <c r="G2">
-        <v>0.5133542502961888</v>
+        <v>0.5048628620955498</v>
       </c>
       <c r="H2">
-        <v>0.6295261512474042</v>
+        <v>0.322372466975736</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04377196850951037</v>
+        <v>0.03253720612696398</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.120204199138129</v>
+        <v>3.112501159349506</v>
       </c>
       <c r="C3">
-        <v>0.2654254544516164</v>
+        <v>0.8476432817166142</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6189219973254865</v>
+        <v>0.6648383071446773</v>
       </c>
       <c r="F3">
-        <v>2.256770304688501</v>
+        <v>1.982616040039488</v>
       </c>
       <c r="G3">
-        <v>0.51420234392792</v>
+        <v>0.4573980772895112</v>
       </c>
       <c r="H3">
-        <v>0.6375345785623807</v>
+        <v>0.3125209196329308</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04415469535792838</v>
+        <v>0.03018040607198103</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.032743207378019</v>
+        <v>2.819344261294361</v>
       </c>
       <c r="C4">
-        <v>0.2414433423650166</v>
+        <v>0.7708134662545376</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6050139318468979</v>
+        <v>0.6091076598367522</v>
       </c>
       <c r="F4">
-        <v>2.237333643526355</v>
+        <v>1.843795894669142</v>
       </c>
       <c r="G4">
-        <v>0.5155636331247706</v>
+        <v>0.4315620273554117</v>
       </c>
       <c r="H4">
-        <v>0.643093673735649</v>
+        <v>0.3082797708900671</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04445087243192702</v>
+        <v>0.02895325596719545</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9971116985606727</v>
+        <v>2.700329567379072</v>
       </c>
       <c r="C5">
-        <v>0.2316514638650915</v>
+        <v>0.7395874014247283</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5993945768389182</v>
+        <v>0.5865328473415943</v>
       </c>
       <c r="F5">
-        <v>2.229853652754002</v>
+        <v>1.788489926981129</v>
       </c>
       <c r="G5">
-        <v>0.5163277833372319</v>
+        <v>0.4217891176170809</v>
       </c>
       <c r="H5">
-        <v>0.6455196874914435</v>
+        <v>0.3069710459113111</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04458682901672617</v>
+        <v>0.02850350915287336</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9911957033572207</v>
+        <v>2.680591446568258</v>
       </c>
       <c r="C6">
-        <v>0.2300243895604126</v>
+        <v>0.7344066155983455</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5984644078881303</v>
+        <v>0.5827919269964354</v>
       </c>
       <c r="F6">
-        <v>2.228638152584836</v>
+        <v>1.779378945306931</v>
       </c>
       <c r="G6">
-        <v>0.5164672608885752</v>
+        <v>0.4202098484844896</v>
       </c>
       <c r="H6">
-        <v>0.6459322047868596</v>
+        <v>0.3067781037265433</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04461032271280274</v>
+        <v>0.02843173088619366</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.032262629146089</v>
+        <v>2.817737503473609</v>
       </c>
       <c r="C7">
-        <v>0.2413113622352228</v>
+        <v>0.7703920384577145</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6049379515470719</v>
+        <v>0.6088026850711259</v>
       </c>
       <c r="F7">
-        <v>2.237230984718266</v>
+        <v>1.843045074348638</v>
       </c>
       <c r="G7">
-        <v>0.5155730934026934</v>
+        <v>0.4314272638774952</v>
       </c>
       <c r="H7">
-        <v>0.6431257424209917</v>
+        <v>0.3082604663470647</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0444526443563511</v>
+        <v>0.02894699303250192</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.213564801243081</v>
+        <v>3.427159713668686</v>
       </c>
       <c r="C8">
-        <v>0.2909512452490617</v>
+        <v>0.9299831345727227</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6339279370114781</v>
+        <v>0.724832869552074</v>
       </c>
       <c r="F8">
-        <v>2.279023409295348</v>
+        <v>2.135457970850311</v>
       </c>
       <c r="G8">
-        <v>0.5134710397386044</v>
+        <v>0.4877627031790155</v>
       </c>
       <c r="H8">
-        <v>0.632153768914435</v>
+        <v>0.3185784969487173</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04389116071777366</v>
+        <v>0.03167580446915252</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.569390280894027</v>
+        <v>4.645148120866111</v>
       </c>
       <c r="C9">
-        <v>0.3876880548206145</v>
+        <v>1.247690202321166</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6922956342516784</v>
+        <v>0.9584299471853654</v>
       </c>
       <c r="F9">
-        <v>2.375060163019526</v>
+        <v>2.760046197057761</v>
       </c>
       <c r="G9">
-        <v>0.5161069903113003</v>
+        <v>0.6282672848060571</v>
       </c>
       <c r="H9">
-        <v>0.61576573922477</v>
+        <v>0.3548944493997226</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04328109603355301</v>
+        <v>0.03902059463515783</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.831028095596139</v>
+        <v>5.562414871063083</v>
       </c>
       <c r="C10">
-        <v>0.4583952198727275</v>
+        <v>1.486087656352481</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7361074719727014</v>
+        <v>1.135472611172716</v>
       </c>
       <c r="F10">
-        <v>2.454364863858245</v>
+        <v>3.260910627090311</v>
       </c>
       <c r="G10">
-        <v>0.5222871558708135</v>
+        <v>0.7556934380557863</v>
       </c>
       <c r="H10">
-        <v>0.6069000738564796</v>
+        <v>0.3940840485433057</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04313995097061962</v>
+        <v>0.04602081525112922</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.950110164522357</v>
+        <v>5.986740268381595</v>
       </c>
       <c r="C11">
-        <v>0.4904841077038213</v>
+        <v>1.596160819723536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7562415852600566</v>
+        <v>1.217636869527567</v>
       </c>
       <c r="F11">
-        <v>2.492377713296236</v>
+        <v>3.500663061567337</v>
       </c>
       <c r="G11">
-        <v>0.526046851192703</v>
+        <v>0.8204323433439384</v>
       </c>
       <c r="H11">
-        <v>0.6035666958547807</v>
+        <v>0.4153245479893286</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04314409573635203</v>
+        <v>0.04965446297787679</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.99521260407613</v>
+        <v>6.148642844886467</v>
       </c>
       <c r="C12">
-        <v>0.5026243824529502</v>
+        <v>1.638127958541645</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7638951721974223</v>
+        <v>1.249027115458546</v>
       </c>
       <c r="F12">
-        <v>2.507053417158573</v>
+        <v>3.593431286618483</v>
       </c>
       <c r="G12">
-        <v>0.5276090767728761</v>
+        <v>0.8460673520829403</v>
       </c>
       <c r="H12">
-        <v>0.6024059053908672</v>
+        <v>0.423925810706919</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04315563113028986</v>
+        <v>0.05110482112992543</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.985498605381451</v>
+        <v>6.113716427282384</v>
       </c>
       <c r="C13">
-        <v>0.5000102523916894</v>
+        <v>1.629076028558018</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7622455362973</v>
+        <v>1.24225363106143</v>
       </c>
       <c r="F13">
-        <v>2.503880200330514</v>
+        <v>3.573359327198006</v>
       </c>
       <c r="G13">
-        <v>0.5272664290009601</v>
+        <v>0.8404940579062696</v>
       </c>
       <c r="H13">
-        <v>0.6026513746796098</v>
+        <v>0.4220473940470413</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04315270135444038</v>
+        <v>0.05078898243396068</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.953820597255117</v>
+        <v>6.000034375458711</v>
       </c>
       <c r="C14">
-        <v>0.4914831184315176</v>
+        <v>1.599607455826288</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7568706649914816</v>
+        <v>1.220213559849881</v>
       </c>
       <c r="F14">
-        <v>2.493579444602773</v>
+        <v>3.508253836258149</v>
       </c>
       <c r="G14">
-        <v>0.5261725881574932</v>
+        <v>0.8225180033171995</v>
       </c>
       <c r="H14">
-        <v>0.6034691579226745</v>
+        <v>0.4160205802788965</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04314484424232035</v>
+        <v>0.04977223339860615</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.934418022410568</v>
+        <v>5.930566223016456</v>
       </c>
       <c r="C15">
-        <v>0.4862585544527747</v>
+        <v>1.581595830685842</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7535822060880832</v>
+        <v>1.20675073839881</v>
       </c>
       <c r="F15">
-        <v>2.487306613433987</v>
+        <v>3.468641124023947</v>
       </c>
       <c r="G15">
-        <v>0.5255206810236928</v>
+        <v>0.8116576423618227</v>
       </c>
       <c r="H15">
-        <v>0.6039833165542206</v>
+        <v>0.4124037894809192</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04314133345982896</v>
+        <v>0.04915944421556873</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.8232470233595</v>
+        <v>5.534843139086092</v>
       </c>
       <c r="C16">
-        <v>0.4562965908646675</v>
+        <v>1.478931035699588</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7347957557001337</v>
+        <v>1.130139222374893</v>
       </c>
       <c r="F16">
-        <v>2.451919825331231</v>
+        <v>3.245503867477225</v>
       </c>
       <c r="G16">
-        <v>0.5220607164939537</v>
+        <v>0.7516109191212763</v>
       </c>
       <c r="H16">
-        <v>0.6071320717572632</v>
+        <v>0.3927701529599261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0431410672073298</v>
+        <v>0.04579319310695951</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.755062842977509</v>
+        <v>5.294025004530113</v>
       </c>
       <c r="C17">
-        <v>0.4378962872710304</v>
+        <v>1.416400033929961</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7233230350062314</v>
+        <v>1.083585674332426</v>
       </c>
       <c r="F17">
-        <v>2.430709037585387</v>
+        <v>3.111845192788365</v>
       </c>
       <c r="G17">
-        <v>0.5201825483140965</v>
+        <v>0.7166067244843362</v>
       </c>
       <c r="H17">
-        <v>0.6092435531190574</v>
+        <v>0.381644791597779</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04315850769099683</v>
+        <v>0.04384971232945745</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.715850925208372</v>
+        <v>5.156163222761563</v>
       </c>
       <c r="C18">
-        <v>0.427305758519708</v>
+        <v>1.380583372187857</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7167434248640632</v>
+        <v>1.056959557541973</v>
       </c>
       <c r="F18">
-        <v>2.41869129423182</v>
+        <v>3.036071064037287</v>
       </c>
       <c r="G18">
-        <v>0.5191914061112755</v>
+        <v>0.6971008802002245</v>
       </c>
       <c r="H18">
-        <v>0.610523823729082</v>
+        <v>0.3755625197584607</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04317496441569091</v>
+        <v>0.04277349774618955</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.702575450945687</v>
+        <v>5.109591473288049</v>
       </c>
       <c r="C19">
-        <v>0.4237187620797158</v>
+        <v>1.368480694185905</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7145189814543613</v>
+        <v>1.047969013027895</v>
       </c>
       <c r="F19">
-        <v>2.414653498039286</v>
+        <v>3.010597077916145</v>
       </c>
       <c r="G19">
-        <v>0.5188710653902433</v>
+        <v>0.690600190309965</v>
       </c>
       <c r="H19">
-        <v>0.6109685763073145</v>
+        <v>0.3735556610601378</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04318163579388568</v>
+        <v>0.04241598214392184</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.76232056490727</v>
+        <v>5.319591784796216</v>
       </c>
       <c r="C20">
-        <v>0.4398557731594224</v>
+        <v>1.423040742109038</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.724542339695617</v>
+        <v>1.088525538367591</v>
       </c>
       <c r="F20">
-        <v>2.43294809284825</v>
+        <v>3.125957427408707</v>
       </c>
       <c r="G20">
-        <v>0.5203732423661762</v>
+        <v>0.7202670248551044</v>
       </c>
       <c r="H20">
-        <v>0.6090119657098683</v>
+        <v>0.3827958649179379</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0431559851263934</v>
+        <v>0.04405222458820646</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.963124963097926</v>
+        <v>6.03339067917716</v>
       </c>
       <c r="C21">
-        <v>0.4939880464108342</v>
+        <v>1.608254918274156</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7584486021672205</v>
+        <v>1.226679393360499</v>
       </c>
       <c r="F21">
-        <v>2.496597377744251</v>
+        <v>3.527320876458674</v>
       </c>
       <c r="G21">
-        <v>0.5264900994547901</v>
+        <v>0.8277663556178538</v>
       </c>
       <c r="H21">
-        <v>0.6032261938040477</v>
+        <v>0.4177750792008652</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04314688050128979</v>
+        <v>0.0500687740670287</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.094412561777688</v>
+        <v>6.5071243464796</v>
       </c>
       <c r="C22">
-        <v>0.5293019173515177</v>
+        <v>1.730992131063488</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.780778677945392</v>
+        <v>1.318606223992219</v>
       </c>
       <c r="F22">
-        <v>2.539835321723388</v>
+        <v>3.801322208920936</v>
       </c>
       <c r="G22">
-        <v>0.5312961661383326</v>
+        <v>0.904632755693072</v>
       </c>
       <c r="H22">
-        <v>0.6000368144758994</v>
+        <v>0.4439260832301244</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04319908286653984</v>
+        <v>0.05444000895569445</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.02433735825565</v>
+        <v>6.253547784287377</v>
       </c>
       <c r="C23">
-        <v>0.5104602019881099</v>
+        <v>1.665311677925843</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7688451322318741</v>
+        <v>1.269377908604724</v>
       </c>
       <c r="F23">
-        <v>2.51660755351989</v>
+        <v>3.653915280602433</v>
       </c>
       <c r="G23">
-        <v>0.5286564031544145</v>
+        <v>0.8629494877160795</v>
       </c>
       <c r="H23">
-        <v>0.6016845909596782</v>
+        <v>0.4296431498840008</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04316585506472492</v>
+        <v>0.05206322724827572</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.75903938595286</v>
+        <v>5.308031227816457</v>
       </c>
       <c r="C24">
-        <v>0.4389699268036793</v>
+        <v>1.420038066691461</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.7239910415514146</v>
+        <v>1.086291798704494</v>
       </c>
       <c r="F24">
-        <v>2.431935266000465</v>
+        <v>3.119573979199373</v>
       </c>
       <c r="G24">
-        <v>0.5202867536387004</v>
+        <v>0.7186102872467615</v>
       </c>
       <c r="H24">
-        <v>0.6091164597605854</v>
+        <v>0.3822744920699392</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04315710556034347</v>
+        <v>0.04396054144273265</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.473095370402177</v>
+        <v>4.312382393137625</v>
       </c>
       <c r="C25">
-        <v>0.3615827341006366</v>
+        <v>1.161033141849259</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.6763427491975307</v>
+        <v>0.8944209169836626</v>
       </c>
       <c r="F25">
-        <v>2.347555472990592</v>
+        <v>2.584560921851278</v>
       </c>
       <c r="G25">
-        <v>0.5146576417684798</v>
+        <v>0.5864738917260297</v>
       </c>
       <c r="H25">
-        <v>0.6196451543245018</v>
+        <v>0.3430875228760186</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04339277174229039</v>
+        <v>0.03678283249431047</v>
       </c>
       <c r="K25">
         <v>0</v>
